--- a/Data Engineering/Data Dictionary.xlsx
+++ b/Data Engineering/Data Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/58383b6c2187892e/Pedro/Aprender/Cursos/Programacion/Data Science/Soy Henry/Clases/Proyecto Final/ProyectoFinal-Henry/Data Engineering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{EEE8B09F-C83C-46DA-B1F1-35A3C602C513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F224DB9-59DD-42E0-BCF8-BA01A28FADE3}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{EEE8B09F-C83C-46DA-B1F1-35A3C602C513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{556D4972-1943-45AE-95FE-E444AD9C9CAE}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{9422C9BE-6E68-47B9-86A9-3556A2DE029F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="163">
   <si>
     <t>Columna1</t>
   </si>
@@ -238,13 +238,301 @@
   </si>
   <si>
     <t xml:space="preserve"> '7217'</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>A unique identifier for the user who submitted the review, potentially linked to an external account like Google.</t>
+  </si>
+  <si>
+    <t>"109434968607034492648", "108584493264435262292"</t>
+  </si>
+  <si>
+    <t>User IDs are unique to each user and remain consistent across reviews.</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>The name of the user as displayed on the platform.</t>
+  </si>
+  <si>
+    <t>"Tony Pinto", "Benji"</t>
+  </si>
+  <si>
+    <t>User names can be real names or pseudonyms chosen by the users.</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>The timestamp when the review was posted, including date and time.</t>
+  </si>
+  <si>
+    <t>"2013-11-18 14:03:54.547", "2015-02-17 22:27:28.498"</t>
+  </si>
+  <si>
+    <t>The format follows the standard datetime representation (YYYY-MM-DD HH:MM:SS.SSS).</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>The rating score given by the user, typically on a scale from 1 to 5.</t>
+  </si>
+  <si>
+    <t>5, 1</t>
+  </si>
+  <si>
+    <t>Ratings are used to quantify the user's satisfaction with their experience.</t>
+  </si>
+  <si>
+    <t>The written review content provided by the user.</t>
+  </si>
+  <si>
+    <t>"I came by yesterday to pick up some pizza...", "Food was burnt and not good..."</t>
+  </si>
+  <si>
+    <t>Review texts can vary greatly in length and detail, offering qualitative feedback.</t>
+  </si>
+  <si>
+    <t>restaurant_name</t>
+  </si>
+  <si>
+    <t>The name of the restaurant the review is about.</t>
+  </si>
+  <si>
+    <t>"Raffaello Kosher Pizza"</t>
+  </si>
+  <si>
+    <t>This is the official name of the restaurant as listed on the platform.</t>
+  </si>
+  <si>
+    <t>The state in which the restaurant is located.</t>
+  </si>
+  <si>
+    <t>"New York"</t>
+  </si>
+  <si>
+    <t>Helps in categorizing and filtering reviews based on geographical locations.</t>
+  </si>
+  <si>
+    <t>The city in which the restaurant is located.</t>
+  </si>
+  <si>
+    <t>Provides more specific location information within the state.</t>
+  </si>
+  <si>
+    <t>gmap_id</t>
+  </si>
+  <si>
+    <t>A unique identifier for the restaurant location on Google Maps.</t>
+  </si>
+  <si>
+    <t>"0x89c258ffaeaba947:0x8355860772a595a9"</t>
+  </si>
+  <si>
+    <t>Useful for integrating with Google Maps or for locating the exact restaurant.</t>
+  </si>
+  <si>
+    <t>Reviews DataSet</t>
+  </si>
+  <si>
+    <t>Users Dataset</t>
+  </si>
+  <si>
+    <t>average_rating</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to each user within the system.</t>
+  </si>
+  <si>
+    <t>The unique username or identifier, often a numeric or alphanumeric string, associated with a user's account.</t>
+  </si>
+  <si>
+    <t>The user's name or the name of the entity the user account represents.</t>
+  </si>
+  <si>
+    <t>The total number of reviews submitted by the user.</t>
+  </si>
+  <si>
+    <t>The average rating score given by the user across all their reviews, typically on a scale from 1 to 5.</t>
+  </si>
+  <si>
+    <t>346009, 481911</t>
+  </si>
+  <si>
+    <t>This value should be unique for every user and is not reusable.</t>
+  </si>
+  <si>
+    <t>104819208193648646391, 106654503918907830147</t>
+  </si>
+  <si>
+    <t>This might be an encrypted or hashed representation of the user's actual name for privacy reasons.</t>
+  </si>
+  <si>
+    <t>Gregor J. Rothfuss, The Corcoran Group</t>
+  </si>
+  <si>
+    <t>This is the name displayed on the platform and can be a personal name, a company name, or a pseudonym.</t>
+  </si>
+  <si>
+    <t>102, 99</t>
+  </si>
+  <si>
+    <t>Indicates the level of user activity or engagement on the platform.</t>
+  </si>
+  <si>
+    <t>3.950980, 4.060606</t>
+  </si>
+  <si>
+    <t>Useful for understanding the user's overall rating behavior; higher values indicate a tendency to give higher ratings.</t>
+  </si>
+  <si>
+    <t>Restaurant DataSet</t>
+  </si>
+  <si>
+    <t>avg_rating</t>
+  </si>
+  <si>
+    <t>num_of_reviews</t>
+  </si>
+  <si>
+    <t>price_numeric</t>
+  </si>
+  <si>
+    <t>The official name of the restaurant as listed on the platform or in public records.</t>
+  </si>
+  <si>
+    <t>The full street address of the restaurant, including any suite or unit numbers.</t>
+  </si>
+  <si>
+    <t>The state within the United States where the restaurant is located.</t>
+  </si>
+  <si>
+    <t>The city where the restaurant is located.</t>
+  </si>
+  <si>
+    <t>The ZIP code or postal code for the restaurant's location.</t>
+  </si>
+  <si>
+    <t>The geographical latitude coordinate of the restaurant's location.</t>
+  </si>
+  <si>
+    <t>The geographical longitude coordinate of the restaurant's location.</t>
+  </si>
+  <si>
+    <t>The average rating score given to the restaurant by users, typically on a scale from 1 to 5.</t>
+  </si>
+  <si>
+    <t>The total number of reviews that have been submitted for the restaurant.</t>
+  </si>
+  <si>
+    <t>A weighted value from 0 to 4 indicating the price level of the restaurant.</t>
+  </si>
+  <si>
+    <t>"San Soo Dang", "Vons Chicken"</t>
+  </si>
+  <si>
+    <t>Names can vary in length and may include special characters or branding symbols.</t>
+  </si>
+  <si>
+    <t>"San Soo Dang, 761 S Vermont Ave, Los Angeles, CA 90005", "Vons Chicken, 12740 La Mirada Blvd, La Mirada, CA 90638"</t>
+  </si>
+  <si>
+    <t>Addresses are specific to the restaurant's physical location and useful for navigation or geographical analysis.</t>
+  </si>
+  <si>
+    <t>"California", "Texas"</t>
+  </si>
+  <si>
+    <t>Helps in categorizing and filtering restaurants based on geographical locations.</t>
+  </si>
+  <si>
+    <t>"Los Angeles", "Austin"</t>
+  </si>
+  <si>
+    <t>"90005", "78702"</t>
+  </si>
+  <si>
+    <t>Useful for mail delivery and more granular geographical sorting.</t>
+  </si>
+  <si>
+    <t>34.058092, 30.273985</t>
+  </si>
+  <si>
+    <t>Part of the geospatial data used for mapping and location services.</t>
+  </si>
+  <si>
+    <t>-118.292130, -97.719563</t>
+  </si>
+  <si>
+    <t>Works in conjunction with latitude for precise geolocation.</t>
+  </si>
+  <si>
+    <t>4.4, 4.5</t>
+  </si>
+  <si>
+    <t>Indicates the overall customer satisfaction and quality of the restaurant.</t>
+  </si>
+  <si>
+    <t>18, 8</t>
+  </si>
+  <si>
+    <t>Reflects the level of customer engagement and feedback.</t>
+  </si>
+  <si>
+    <t>0, 2</t>
+  </si>
+  <si>
+    <t>Useful for filtering restaurants based on budget preferences.</t>
+  </si>
+  <si>
+    <t>"0x80c2c778e3b73d33:0xbdc58662a4a97d49", "0x8644b59b8fe872e5:0x5e638876caa84cc3"</t>
+  </si>
+  <si>
+    <t>Essential for integrating with Google Maps services or for cross-referencing location data.</t>
+  </si>
+  <si>
+    <t>Category DataSet</t>
+  </si>
+  <si>
+    <t>Various Restaurant Types (e.g., 'Afghani restaurant', 'American restaurant', etc.)</t>
+  </si>
+  <si>
+    <t>Integer (binary: 0 or 1)</t>
+  </si>
+  <si>
+    <t>A unique identifier for a location on Google Maps, typically associated with a specific restaurant or business.</t>
+  </si>
+  <si>
+    <t>Each column represents a different type of restaurant, with 1 indicating presence and 0 indicating absence of the category for the restaurant.</t>
+  </si>
+  <si>
+    <t>"0x89c2592cf2935ed9:0x6672264426649f94"</t>
+  </si>
+  <si>
+    <t>This ID is crucial for linking the dummy encoded data back to specific locations or entities in other datasets or applications.</t>
+  </si>
+  <si>
+    <t>0, 1</t>
+  </si>
+  <si>
+    <t>There are numerous restaurant type columns, each serving as a binary flag for a specific restaurant category. Column names may need standardization.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +544,20 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -275,7 +577,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -384,11 +686,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -418,11 +733,194 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="14">
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -445,8 +943,68 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{94E3E7A4-24C2-4DB6-AAE8-77E4B0B41139}" name="Tabla1" displayName="Tabla1" ref="B3:E14" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8F187ABF-8EFE-4927-9090-4EB2917B99AC}" name="Tabla4" displayName="Tabla4" ref="B3:F12" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="B3:F12" xr:uid="{8F187ABF-8EFE-4927-9090-4EB2917B99AC}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{C5ECFBE0-5D88-411E-A9A3-CEFE149DD41B}" name="Column Name"/>
+    <tableColumn id="3" xr3:uid="{742B158B-8CB4-462A-9F5F-8B367B5547C5}" name="Description"/>
+    <tableColumn id="2" xr3:uid="{55A9145A-69C2-4200-8B7F-2E49001ADC1F}" name="Data Type"/>
+    <tableColumn id="4" xr3:uid="{BBEC262B-1569-4B36-983A-969EEEE4A7CD}" name="Example"/>
+    <tableColumn id="5" xr3:uid="{ADC8C51E-90A0-42F1-B042-43C236AB2C3B}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A7F950F1-DE4D-40D4-8ADE-E244813A8546}" name="Tabla5" displayName="Tabla5" ref="B15:F20" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B15:F20" xr:uid="{A7F950F1-DE4D-40D4-8ADE-E244813A8546}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{1C0EAA43-65A3-446B-80F4-9D019C0DF3A6}" name="Column Name"/>
+    <tableColumn id="2" xr3:uid="{203462D0-905E-4C74-AC4E-0D9B296FB035}" name="Description"/>
+    <tableColumn id="3" xr3:uid="{127593AC-B6E8-42D4-B8AA-0206CA327BE5}" name="Data Type"/>
+    <tableColumn id="4" xr3:uid="{3898A450-E7E6-453F-AB2D-29C0E33B4DF8}" name="Example"/>
+    <tableColumn id="5" xr3:uid="{D95661D7-36A1-4564-B6F8-A50AC81466E1}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5D88B3D6-F889-4054-9D3E-18E993B4A9FA}" name="Tabla6" displayName="Tabla6" ref="B23:F34" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="4">
+  <autoFilter ref="B23:F34" xr:uid="{5D88B3D6-F889-4054-9D3E-18E993B4A9FA}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{262CF98C-47A1-4E63-B932-6224F5F8BAA3}" name="Column Name"/>
+    <tableColumn id="2" xr3:uid="{C3166466-9FF9-4043-B631-8F7F5B19D936}" name="Description"/>
+    <tableColumn id="3" xr3:uid="{69467AE3-7E3D-4619-A37F-19BD058B2DB4}" name="Data Type"/>
+    <tableColumn id="4" xr3:uid="{FE4DC522-2688-4D91-8E4F-983E5F74862F}" name="Example"/>
+    <tableColumn id="5" xr3:uid="{6B58ADF6-4F17-4D7E-AAE6-22E8DCCBB9EB}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5A568152-28EE-4A09-B1C1-4C8A2143DEA0}" name="Tabla59" displayName="Tabla59" ref="B37:F39" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+  <autoFilter ref="B37:F39" xr:uid="{5A568152-28EE-4A09-B1C1-4C8A2143DEA0}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{BC6AA938-661B-48C2-8F4A-3AD110EB8B67}" name="Column Name"/>
+    <tableColumn id="2" xr3:uid="{E42DCF68-9269-493D-A156-DB321E4C61B7}" name="Description"/>
+    <tableColumn id="3" xr3:uid="{C3318072-D011-4818-953D-F29B6C96DF55}" name="Data Type"/>
+    <tableColumn id="4" xr3:uid="{54E73657-9120-4C19-94F6-3A97C37EE006}" name="Example"/>
+    <tableColumn id="5" xr3:uid="{294792C4-B3A5-4EF1-A722-B253401601EC}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{94E3E7A4-24C2-4DB6-AAE8-77E4B0B41139}" name="Tabla1" displayName="Tabla1" ref="B3:E14" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="B3:E14" xr:uid="{94E3E7A4-24C2-4DB6-AAE8-77E4B0B41139}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E50B9193-EFD1-4862-A567-AEBA6304E590}" name="Name"/>
@@ -458,8 +1016,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C0E4B9EF-DD37-47CD-BC83-7CCBEF35FEE0}" name="Tabla13" displayName="Tabla13" ref="B17:E23" totalsRowShown="0" headerRowDxfId="1">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C0E4B9EF-DD37-47CD-BC83-7CCBEF35FEE0}" name="Tabla13" displayName="Tabla13" ref="B17:E23" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="B17:E23" xr:uid="{C0E4B9EF-DD37-47CD-BC83-7CCBEF35FEE0}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{41D2016A-79AF-426B-AD9A-9E517BD8DC9D}" name="Name"/>
@@ -471,8 +1029,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{529D9924-588D-4F1E-98EB-EAF691816940}" name="Tabla14" displayName="Tabla14" ref="B26:E30" totalsRowShown="0" headerRowDxfId="0">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{529D9924-588D-4F1E-98EB-EAF691816940}" name="Tabla14" displayName="Tabla14" ref="B26:E30" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="B26:E30" xr:uid="{529D9924-588D-4F1E-98EB-EAF691816940}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{67219D19-A832-4A52-B158-5BEC42886AE5}" name="Name"/>
@@ -781,20 +1339,601 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417637A4-0A28-4C48-B1AA-EF9209DFC69D}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:F39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="1.265625" customWidth="1"/>
+    <col min="2" max="2" width="63.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="97.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="120.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="5.65" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1" spans="2:6" ht="5.65" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B22" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B23" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>148</v>
+      </c>
+      <c r="F32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" t="s">
+        <v>152</v>
+      </c>
+      <c r="F34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B36" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B37" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" t="s">
+        <v>159</v>
+      </c>
+      <c r="F38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" t="s">
+        <v>161</v>
+      </c>
+      <c r="F39" t="s">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B14:F14"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="4">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -803,7 +1942,7 @@
   <dimension ref="B1:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E30"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
